--- a/data/Digital_Wallet_DataExcel.xlsx
+++ b/data/Digital_Wallet_DataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\vodacom.payment_solution\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EFF6D3-EB9B-43D4-8944-2938AA0E0798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309EB73-15FB-4695-8663-491E828F34C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="3000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,13 +487,14 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.140625" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25.42578125" style="4" customWidth="1"/>
